--- a/output_data/charts/1600000US3953970.xlsx
+++ b/output_data/charts/1600000US3953970.xlsx
@@ -141,11 +141,23 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="38100"/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -199,37 +211,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>7.955464720013408</c:v>
+                  <c:v>8.100709510419188</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.506074446642874</c:v>
+                  <c:v>8.917509569333754</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.107005375104221</c:v>
+                  <c:v>8.031611999077539</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.420401429749795</c:v>
+                  <c:v>8.317294473467143</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.589660662752513</c:v>
+                  <c:v>8.354894351013368</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.93921334922527</c:v>
+                  <c:v>8.884323442694937</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.27452694685568</c:v>
+                  <c:v>8.196465371885344</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.704450429270761</c:v>
+                  <c:v>8.838365051259542</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.989830703508192</c:v>
+                  <c:v>8.975446974382578</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.201130305265943</c:v>
+                  <c:v>9.396010523531787</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.29336078229542</c:v>
+                  <c:v>10.55729311004658</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12.14627212818194</c:v>
@@ -255,7 +267,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" baseline="0"/>
+              <a:defRPr sz="1600" baseline="0">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -270,7 +284,7 @@
         <c:axId val="50010002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="13.360899341000131"/>
+          <c:max val="14"/>
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -282,7 +296,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" baseline="0"/>
+              <a:defRPr sz="1600" baseline="0">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -292,6 +308,37 @@
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="80C080"/>
+            </a:gs>
+            <a:gs pos="21428">
+              <a:srgbClr val="80C080"/>
+            </a:gs>
+            <a:gs pos="21428">
+              <a:srgbClr val="FFFF80"/>
+            </a:gs>
+            <a:gs pos="28571">
+              <a:srgbClr val="FFFF80"/>
+            </a:gs>
+            <a:gs pos="28571">
+              <a:srgbClr val="FFD280"/>
+            </a:gs>
+            <a:gs pos="35714">
+              <a:srgbClr val="FFD280"/>
+            </a:gs>
+            <a:gs pos="35714">
+              <a:srgbClr val="FF8080"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FF8080"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -313,10 +360,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -645,7 +692,7 @@
         <v>2012</v>
       </c>
       <c r="B2" s="1">
-        <v>7.955464720013408</v>
+        <v>8.100709510419188</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -653,7 +700,7 @@
         <v>2013</v>
       </c>
       <c r="B3" s="1">
-        <v>8.506074446642874</v>
+        <v>8.917509569333754</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -661,7 +708,7 @@
         <v>2014</v>
       </c>
       <c r="B4" s="1">
-        <v>8.107005375104221</v>
+        <v>8.031611999077539</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -669,7 +716,7 @@
         <v>2015</v>
       </c>
       <c r="B5" s="1">
-        <v>8.420401429749795</v>
+        <v>8.317294473467143</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -677,7 +724,7 @@
         <v>2016</v>
       </c>
       <c r="B6" s="1">
-        <v>8.589660662752513</v>
+        <v>8.354894351013368</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -685,7 +732,7 @@
         <v>2017</v>
       </c>
       <c r="B7" s="1">
-        <v>8.93921334922527</v>
+        <v>8.884323442694937</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -693,7 +740,7 @@
         <v>2018</v>
       </c>
       <c r="B8" s="1">
-        <v>8.27452694685568</v>
+        <v>8.196465371885344</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -701,7 +748,7 @@
         <v>2019</v>
       </c>
       <c r="B9" s="1">
-        <v>8.704450429270761</v>
+        <v>8.838365051259542</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -709,7 +756,7 @@
         <v>2020</v>
       </c>
       <c r="B10" s="1">
-        <v>8.989830703508192</v>
+        <v>8.975446974382578</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -717,7 +764,7 @@
         <v>2021</v>
       </c>
       <c r="B11" s="1">
-        <v>9.201130305265943</v>
+        <v>9.396010523531787</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -725,7 +772,7 @@
         <v>2022</v>
       </c>
       <c r="B12" s="1">
-        <v>10.29336078229542</v>
+        <v>10.55729311004658</v>
       </c>
     </row>
     <row r="13" spans="1:2">
